--- a/processed_category2_values.xlsx
+++ b/processed_category2_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,12 +474,12 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -612,12 +612,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -704,12 +704,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -865,12 +865,12 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -957,12 +957,12 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1095,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1118,12 +1118,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1187,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1210,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1348,12 +1348,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1394,12 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1417,12 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1440,12 +1440,12 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1532,12 +1532,12 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1578,12 +1578,12 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1595,18 +1595,18 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ZZ1</t>
+          <t>ZZa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
@@ -1618,1053 +1618,1122 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ZZT1</t>
+          <t>ZZTa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>接线盒座盖</t>
+          <t>总装1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JXHZG</t>
+          <t>ZZ1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>整机喷漆</t>
+          <t>接线盒座盖</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ZJPQ</t>
+          <t>JXHZG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>整机喷漆(铁)</t>
+          <t>整机喷漆</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZJPQT</t>
+          <t>ZJPQ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>整机喷漆浸漆</t>
+          <t>整机喷漆(铁)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ZJPQJQ</t>
+          <t>ZJPQT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>整机喷漆转子</t>
+          <t>整机喷漆浸漆</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZJPQZZ</t>
+          <t>ZJPQJQ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>旁磁电机</t>
+          <t>整机喷漆转子</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PCDJ</t>
+          <t>ZJPQZZ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>无锡赛威特江苏汉威电机轴转子</t>
+          <t>旁磁电机</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WXSWTJSHWDJZZZ</t>
+          <t>PCDJ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>旭普力矩电机中装</t>
+          <t>无锡赛威特江苏汉威电机轴转子</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>XPLJDJZZ</t>
+          <t>WXSWTJSHWDJZZZ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>旭普力矩电机前装</t>
+          <t>旭普力矩电机中装</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>XPLJDJQZ</t>
+          <t>XPLJDJZZ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>旭普力矩电机后装</t>
+          <t>旭普力矩电机前装</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>XPLJDJHZ</t>
+          <t>XPLJDJQZ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>机座B3</t>
+          <t>旭普力矩电机后装</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JZB3</t>
+          <t>XPLJDJHZ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>机座B3(铝)</t>
+          <t>机座B3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JZB3L</t>
+          <t>JZB3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>机座B5</t>
+          <t>机座B3(铝)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JZB5</t>
+          <t>JZB3L</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>机座B5(铝)</t>
+          <t>机座B5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JZB5L</t>
+          <t>JZB5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>滕州AO2轴(普车)</t>
+          <t>机座B5(铝)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TZAO2ZPC</t>
+          <t>JZB5L</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>滕州电机</t>
+          <t>滕州AO2轴(普车)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TZDJ</t>
+          <t>TZAO2ZPC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>滕州电机(数控车)</t>
+          <t>滕州电机</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TZDJSKC</t>
+          <t>TZDJ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>滕州电机(普车)</t>
+          <t>滕州电机(数控车)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TZDJPC</t>
+          <t>TZDJSKC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>滕州电机轴转子普通机床手动</t>
+          <t>滕州电机(普车)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TZDJZZZPTJCSD</t>
+          <t>TZDJPC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>滕州端盖(铸铁)(数控车)</t>
+          <t>滕州电机轴转子普通机床手动</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TZDGZTSKC</t>
+          <t>TZDJZZZPTJCSD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>滕州端盖(铸铁)(普车)</t>
+          <t>滕州端盖(铸铁)(数控车)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TZDGZTPC</t>
+          <t>TZDGZTSKC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>特殊端盖</t>
+          <t>滕州端盖(铸铁)(普车)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TSDG</t>
+          <t>TZDGZTPC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>特殊装配</t>
+          <t>特殊端盖</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TSZP</t>
+          <t>TSDG</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>瑞田</t>
+          <t>特殊装配</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>TSZP</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>瑞田迈斯拓电机轴转子</t>
+          <t>瑞田</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RTMSTDJZZZ</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>端盖</t>
+          <t>瑞田迈斯拓电机轴转子</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>RTMSTDJZZZ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>绝缘处理套壳</t>
+          <t>端盖</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JYCLTK</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>藤州单相中装</t>
+          <t>绝缘处理套壳</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TZDXZZ</t>
+          <t>JYCLTK</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>藤州单相前装</t>
+          <t>藤州单相中装</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TZDXQZ</t>
+          <t>TZDXZZ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>藤州单相后装</t>
+          <t>藤州单相前装</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TZDXHZ</t>
+          <t>TZDXQZ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>转子</t>
+          <t>藤州单相后装</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ZZ2</t>
+          <t>TZDXHZ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>转子喷漆</t>
+          <t>转子</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ZZPQ</t>
+          <t>ZZb</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>轴转子磨铣车普通机床手动</t>
+          <t>转子1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ZZZMXCPTJCSD</t>
+          <t>ZZ1a</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>轴转子磨铣车自动机床</t>
+          <t>转子2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZZZMXCZDJC</t>
+          <t>ZZ2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>迈斯拓</t>
+          <t>转子喷漆</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>ZZPQ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>迈斯拓电机中装</t>
+          <t>轴转子磨铣车普通机床手动</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MSTDJZZ</t>
+          <t>ZZZMXCPTJCSD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>迈斯拓电机前装</t>
+          <t>轴转子磨铣车自动机床</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MSTDJQZ</t>
+          <t>ZZZMXCZDJC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>迈斯拓电机后装</t>
+          <t>迈斯拓</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MSTDJHZ</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>迈斯拓电机轴转子</t>
+          <t>迈斯拓电机中装</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MSTDJZZZ</t>
+          <t>MSTDJZZ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>邵阳BJ系列电机轴转子</t>
+          <t>迈斯拓电机前装</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SYBJXLDJZZZ</t>
+          <t>MSTDJQZ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>邵阳端盖(铸铁)(数控车)</t>
+          <t>迈斯拓电机后装</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SYDGZTSKC</t>
+          <t>MSTDJHZ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>邵阳端盖(铸铁)(普车)</t>
+          <t>迈斯拓电机轴转子</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SYDGZTPC</t>
+          <t>MSTDJZZZ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>风机电机中装</t>
+          <t>邵阳BJ系列电机轴转子</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FJDJZZ</t>
+          <t>SYBJXLDJZZZ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>风机电机前装</t>
+          <t>邵阳端盖(铸铁)(数控车)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FJDJQZ</t>
+          <t>SYDGZTSKC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>风机电机后装</t>
+          <t>邵阳端盖(铸铁)(普车)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FJDJHZ</t>
+          <t>SYDGZTPC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:33</t>
+          <t>2026-01-14 21:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>风机电机中装</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FJDJZZ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2026-01-14 21:50:01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2026-01-14 21:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>风机电机前装</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FJDJQZ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2026-01-14 21:50:01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2026-01-14 21:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>风机电机后装</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>FJDJHZ</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2026-01-14 21:50:01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2026-01-14 21:50:01</t>
         </is>
       </c>
     </row>
